--- a/files/workbooks/database-dictionary.xlsx
+++ b/files/workbooks/database-dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tan\Documents\GitHub\dynastyprocess-private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tan\Documents\GitHub\dynastyprocess\files\workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547E6BA4-2405-4D99-9812-EF3807A80B78}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE40E029-5DF1-43B6-A3E3-54FF8B1A1A61}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31A8E571-4254-41C1-8650-7597F609EEA0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="185">
   <si>
     <t>gsis_id</t>
   </si>
@@ -571,6 +571,15 @@
   </si>
   <si>
     <t>PPR per game average</t>
+  </si>
+  <si>
+    <t>draft_rookieadp</t>
+  </si>
+  <si>
+    <t>Mizelle/DLF ADP</t>
+  </si>
+  <si>
+    <t>ADP</t>
   </si>
 </sst>
 </file>
@@ -612,7 +621,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -626,10 +639,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6CF9520-938F-4048-85AB-7C81581D0455}" name="Table1" displayName="Table1" ref="A1:E79" totalsRowShown="0">
-  <autoFilter ref="A1:E79" xr:uid="{0E67774C-049E-4D68-84B5-316BC4C34740}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6CF9520-938F-4048-85AB-7C81581D0455}" name="Table1" displayName="Table1" ref="A1:E80" totalsRowShown="0">
+  <autoFilter ref="A1:E80" xr:uid="{0E67774C-049E-4D68-84B5-316BC4C34740}"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{884C6104-C9CA-49B7-9B83-014D72207949}" name="Index"/>
+    <tableColumn id="2" xr3:uid="{884C6104-C9CA-49B7-9B83-014D72207949}" name="Index" dataDxfId="0">
+      <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="4" xr3:uid="{E7544F53-5F55-448B-9CFC-AA6215D65561}" name="Category"/>
     <tableColumn id="1" xr3:uid="{EAF48FFE-91AF-4D0C-BA71-AE236F6143EE}" name="Label"/>
     <tableColumn id="5" xr3:uid="{F00F7FF5-1585-47B6-B002-179DDFD970BB}" name="Description"/>
@@ -936,17 +951,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF5804A-A85B-44BD-AA15-0FE4A64F29FD}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
   </cols>
@@ -970,6 +985,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
+        <f t="shared" ref="A2:A33" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -987,6 +1003,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1004,6 +1021,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1021,6 +1039,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1038,6 +1057,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1055,6 +1075,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -1072,6 +1093,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -1089,6 +1111,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -1106,6 +1129,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -1123,6 +1147,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -1140,6 +1165,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -1157,6 +1183,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -1174,6 +1201,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -1191,6 +1219,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -1208,6 +1237,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -1225,6 +1255,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -1242,6 +1273,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -1259,6 +1291,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -1276,6 +1309,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -1293,6 +1327,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -1310,6 +1345,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -1327,6 +1363,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -1344,6 +1381,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -1361,6 +1399,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -1378,6 +1417,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -1395,6 +1435,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -1412,6 +1453,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -1429,6 +1471,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -1446,6 +1489,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -1463,6 +1507,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -1480,6 +1525,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -1497,33 +1543,35 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
+        <f t="shared" ref="A34:A65" si="1">ROW()-1</f>
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E34" t="s">
         <v>109</v>
@@ -1531,33 +1579,35 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E35" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E36" t="s">
         <v>145</v>
@@ -1565,16 +1615,17 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E37" t="s">
         <v>145</v>
@@ -1582,16 +1633,17 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E38" t="s">
         <v>145</v>
@@ -1599,16 +1651,17 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E39" t="s">
         <v>145</v>
@@ -1616,16 +1669,17 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E40" t="s">
         <v>145</v>
@@ -1633,16 +1687,17 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E41" t="s">
         <v>145</v>
@@ -1650,16 +1705,17 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E42" t="s">
         <v>145</v>
@@ -1667,16 +1723,17 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E43" t="s">
         <v>145</v>
@@ -1684,16 +1741,17 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E44" t="s">
         <v>145</v>
@@ -1701,16 +1759,17 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E45" t="s">
         <v>145</v>
@@ -1718,33 +1777,35 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E46" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E47" t="s">
         <v>148</v>
@@ -1752,16 +1813,17 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E48" t="s">
         <v>148</v>
@@ -1769,33 +1831,35 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E49" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E50" t="s">
         <v>157</v>
@@ -1803,16 +1867,17 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E51" t="s">
         <v>157</v>
@@ -1820,16 +1885,17 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E52" t="s">
         <v>157</v>
@@ -1837,16 +1903,17 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>82</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E53" t="s">
         <v>157</v>
@@ -1854,16 +1921,17 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E54" t="s">
         <v>157</v>
@@ -1871,16 +1939,17 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>82</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E55" t="s">
         <v>157</v>
@@ -1888,16 +1957,17 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D56" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E56" t="s">
         <v>157</v>
@@ -1905,16 +1975,17 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>83</v>
       </c>
       <c r="C57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E57" t="s">
         <v>157</v>
@@ -1922,16 +1993,17 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E58" t="s">
         <v>157</v>
@@ -1939,16 +2011,17 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>83</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D59" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E59" t="s">
         <v>157</v>
@@ -1956,16 +2029,17 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>83</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D60" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E60" t="s">
         <v>157</v>
@@ -1973,16 +2047,17 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E61" t="s">
         <v>157</v>
@@ -1990,16 +2065,17 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E62" t="s">
         <v>157</v>
@@ -2007,16 +2083,17 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E63" t="s">
         <v>157</v>
@@ -2024,16 +2101,17 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E64" t="s">
         <v>157</v>
@@ -2041,16 +2119,17 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E65" t="s">
         <v>157</v>
@@ -2058,16 +2137,17 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
+        <f t="shared" ref="A66:A80" si="2">ROW()-1</f>
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>84</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E66" t="s">
         <v>157</v>
@@ -2075,16 +2155,17 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E67" t="s">
         <v>157</v>
@@ -2092,16 +2173,17 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>84</v>
       </c>
       <c r="C68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E68" t="s">
         <v>157</v>
@@ -2109,16 +2191,17 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E69" t="s">
         <v>157</v>
@@ -2126,16 +2209,17 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E70" t="s">
         <v>157</v>
@@ -2143,16 +2227,17 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E71" t="s">
         <v>157</v>
@@ -2160,16 +2245,17 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>84</v>
       </c>
       <c r="C72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E72" t="s">
         <v>157</v>
@@ -2177,16 +2263,17 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>84</v>
       </c>
       <c r="C73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E73" t="s">
         <v>157</v>
@@ -2194,16 +2281,17 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E74" t="s">
         <v>157</v>
@@ -2211,16 +2299,17 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D75" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E75" t="s">
         <v>157</v>
@@ -2228,16 +2317,17 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D76" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E76" t="s">
         <v>157</v>
@@ -2245,16 +2335,17 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>85</v>
       </c>
       <c r="C77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D77" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E77" t="s">
         <v>157</v>
@@ -2262,16 +2353,17 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D78" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E78" t="s">
         <v>157</v>
@@ -2279,18 +2371,37 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>86</v>
       </c>
       <c r="C79" t="s">
+        <v>76</v>
+      </c>
+      <c r="D79" t="s">
+        <v>180</v>
+      </c>
+      <c r="E79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" t="s">
         <v>77</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D80" t="s">
         <v>181</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E80" t="s">
         <v>157</v>
       </c>
     </row>

--- a/files/workbooks/database-dictionary.xlsx
+++ b/files/workbooks/database-dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tan\Documents\GitHub\dynastyprocess\files\workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE40E029-5DF1-43B6-A3E3-54FF8B1A1A61}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0C8648-96E1-4574-91B2-A338952741B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31A8E571-4254-41C1-8650-7597F609EEA0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="188">
   <si>
     <t>gsis_id</t>
   </si>
@@ -579,7 +579,16 @@
     <t>Mizelle/DLF ADP</t>
   </si>
   <si>
-    <t>ADP</t>
+    <t>draft_2QBrookieADP</t>
+  </si>
+  <si>
+    <t>Rookie Average Draft Position</t>
+  </si>
+  <si>
+    <t>2QB Rookie Average Draft Position</t>
+  </si>
+  <si>
+    <t>TwoQBs.com</t>
   </si>
 </sst>
 </file>
@@ -639,8 +648,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6CF9520-938F-4048-85AB-7C81581D0455}" name="Table1" displayName="Table1" ref="A1:E80" totalsRowShown="0">
-  <autoFilter ref="A1:E80" xr:uid="{0E67774C-049E-4D68-84B5-316BC4C34740}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6CF9520-938F-4048-85AB-7C81581D0455}" name="Table1" displayName="Table1" ref="A1:E81" totalsRowShown="0">
+  <autoFilter ref="A1:E81" xr:uid="{0E67774C-049E-4D68-84B5-316BC4C34740}"/>
   <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{884C6104-C9CA-49B7-9B83-014D72207949}" name="Index" dataDxfId="0">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
@@ -951,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF5804A-A85B-44BD-AA15-0FE4A64F29FD}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,7 +1562,7 @@
         <v>182</v>
       </c>
       <c r="D33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E33" t="s">
         <v>183</v>
@@ -1561,35 +1570,35 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" ref="A34:A65" si="1">ROW()-1</f>
+        <f>ROW()-1</f>
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="E34" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A35:A66" si="1">ROW()-1</f>
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E35" t="s">
         <v>109</v>
@@ -1604,13 +1613,13 @@
         <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1622,10 +1631,10 @@
         <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E37" t="s">
         <v>145</v>
@@ -1640,10 +1649,10 @@
         <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E38" t="s">
         <v>145</v>
@@ -1658,10 +1667,10 @@
         <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E39" t="s">
         <v>145</v>
@@ -1676,10 +1685,10 @@
         <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E40" t="s">
         <v>145</v>
@@ -1694,10 +1703,10 @@
         <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E41" t="s">
         <v>145</v>
@@ -1712,10 +1721,10 @@
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E42" t="s">
         <v>145</v>
@@ -1730,10 +1739,10 @@
         <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E43" t="s">
         <v>145</v>
@@ -1748,10 +1757,10 @@
         <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E44" t="s">
         <v>145</v>
@@ -1766,10 +1775,10 @@
         <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E45" t="s">
         <v>145</v>
@@ -1784,10 +1793,10 @@
         <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E46" t="s">
         <v>145</v>
@@ -1799,16 +1808,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D47" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E47" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1820,10 +1829,10 @@
         <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E48" t="s">
         <v>148</v>
@@ -1838,10 +1847,10 @@
         <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E49" t="s">
         <v>148</v>
@@ -1853,16 +1862,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E50" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1874,10 +1883,10 @@
         <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E51" t="s">
         <v>157</v>
@@ -1892,10 +1901,10 @@
         <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E52" t="s">
         <v>157</v>
@@ -1910,10 +1919,10 @@
         <v>82</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E53" t="s">
         <v>157</v>
@@ -1928,10 +1937,10 @@
         <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E54" t="s">
         <v>157</v>
@@ -1946,10 +1955,10 @@
         <v>82</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E55" t="s">
         <v>157</v>
@@ -1964,10 +1973,10 @@
         <v>82</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E56" t="s">
         <v>157</v>
@@ -1979,13 +1988,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D57" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E57" t="s">
         <v>157</v>
@@ -2000,10 +2009,10 @@
         <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E58" t="s">
         <v>157</v>
@@ -2018,10 +2027,10 @@
         <v>83</v>
       </c>
       <c r="C59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E59" t="s">
         <v>157</v>
@@ -2036,10 +2045,10 @@
         <v>83</v>
       </c>
       <c r="C60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D60" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E60" t="s">
         <v>157</v>
@@ -2054,10 +2063,10 @@
         <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E61" t="s">
         <v>157</v>
@@ -2072,10 +2081,10 @@
         <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E62" t="s">
         <v>157</v>
@@ -2087,13 +2096,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E63" t="s">
         <v>157</v>
@@ -2108,10 +2117,10 @@
         <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E64" t="s">
         <v>157</v>
@@ -2126,10 +2135,10 @@
         <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E65" t="s">
         <v>157</v>
@@ -2137,17 +2146,17 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" ref="A66:A80" si="2">ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>84</v>
       </c>
       <c r="C66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E66" t="s">
         <v>157</v>
@@ -2155,17 +2164,17 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A67:A81" si="2">ROW()-1</f>
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E67" t="s">
         <v>157</v>
@@ -2180,10 +2189,10 @@
         <v>84</v>
       </c>
       <c r="C68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E68" t="s">
         <v>157</v>
@@ -2198,10 +2207,10 @@
         <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D69" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E69" t="s">
         <v>157</v>
@@ -2216,10 +2225,10 @@
         <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E70" t="s">
         <v>157</v>
@@ -2234,10 +2243,10 @@
         <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D71" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E71" t="s">
         <v>157</v>
@@ -2252,10 +2261,10 @@
         <v>84</v>
       </c>
       <c r="C72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E72" t="s">
         <v>157</v>
@@ -2270,10 +2279,10 @@
         <v>84</v>
       </c>
       <c r="C73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D73" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E73" t="s">
         <v>157</v>
@@ -2288,10 +2297,10 @@
         <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E74" t="s">
         <v>157</v>
@@ -2306,10 +2315,10 @@
         <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D75" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E75" t="s">
         <v>157</v>
@@ -2321,13 +2330,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D76" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E76" t="s">
         <v>157</v>
@@ -2342,10 +2351,10 @@
         <v>85</v>
       </c>
       <c r="C77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D77" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E77" t="s">
         <v>157</v>
@@ -2360,10 +2369,10 @@
         <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D78" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E78" t="s">
         <v>157</v>
@@ -2375,13 +2384,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E79" t="s">
         <v>157</v>
@@ -2396,12 +2405,30 @@
         <v>86</v>
       </c>
       <c r="C80" t="s">
+        <v>76</v>
+      </c>
+      <c r="D80" t="s">
+        <v>180</v>
+      </c>
+      <c r="E80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" t="s">
         <v>77</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D81" t="s">
         <v>181</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E81" t="s">
         <v>157</v>
       </c>
     </row>
